--- a/test.xlsx
+++ b/test.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -365,6 +365,11 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <v>1234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>5678</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -372,6 +372,11 @@
         <v>5678</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
